--- a/AAII_Financials/Quarterly/FOMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>FOMC</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,63 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -721,10 +729,10 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -741,19 +749,25 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>5</v>
@@ -770,19 +784,25 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>5</v>
@@ -799,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +904,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>-400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>-200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>300</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,45 +1075,53 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
+      <c r="E21" s="3">
+        <v>-2100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
@@ -1058,104 +1132,128 @@
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1705,10 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1542,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1562,8 +1736,14 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,19 +1771,25 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>5</v>
@@ -1620,48 +1806,60 @@
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>5</v>
@@ -1675,19 +1873,25 @@
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -1707,37 +1911,49 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
         <v>200</v>
       </c>
       <c r="F47" s="3">
+        <v>200</v>
+      </c>
+      <c r="G47" s="3">
+        <v>200</v>
+      </c>
+      <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,20 +1981,26 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F49" s="3">
         <v>800</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
@@ -1794,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,23 +2086,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
@@ -1881,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2225,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1977,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -1994,13 +2256,19 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -2023,37 +2291,49 @@
       <c r="K58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2061,28 +2341,34 @@
         <v>1200</v>
       </c>
       <c r="E60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2396,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +2536,14 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2235,28 +2551,34 @@
         <v>1200</v>
       </c>
       <c r="E66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,28 +3030,30 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -2663,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,20 +3236,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -2837,8 +3271,14 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,19 +3581,25 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3124,8 +3616,14 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,16 +3651,22 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3180,6 +3684,12 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FOMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>FOMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -729,14 +733,14 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -755,8 +759,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,8 +776,8 @@
       <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
+      <c r="G9" s="3">
+        <v>100</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,43 +927,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>-400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-200</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,55 +1110,59 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1138,87 +1175,96 @@
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1243,17 +1289,20 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,20 +1793,21 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -1742,31 +1829,34 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1777,8 +1867,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1789,10 +1882,10 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>5</v>
@@ -1812,16 +1905,19 @@
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
+      <c r="E44" s="3">
+        <v>200</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>5</v>
@@ -1838,8 +1934,8 @@
       <c r="J44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1847,22 +1943,25 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>5</v>
@@ -1879,23 +1978,26 @@
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -1917,16 +2019,19 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>200</v>
+      </c>
+      <c r="E47" s="3">
         <v>300</v>
-      </c>
-      <c r="E47" s="3">
-        <v>200</v>
       </c>
       <c r="F47" s="3">
         <v>200</v>
@@ -1935,25 +2040,28 @@
         <v>200</v>
       </c>
       <c r="H47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I47" s="3">
         <v>100</v>
       </c>
       <c r="J47" s="3">
+        <v>100</v>
+      </c>
+      <c r="K47" s="3">
         <v>200</v>
-      </c>
-      <c r="K47" s="3">
-        <v>300</v>
       </c>
       <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>300</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1987,23 +2095,26 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="E49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F49" s="3">
         <v>2000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>800</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,26 +2209,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>1200</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="E54" s="3">
         <v>2500</v>
       </c>
       <c r="F54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>300</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2236,14 +2367,14 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
@@ -2262,16 +2393,19 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -2297,78 +2431,87 @@
       <c r="M58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1000</v>
       </c>
       <c r="L59" s="3">
         <v>1000</v>
       </c>
       <c r="M59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>800</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
       </c>
       <c r="I60" s="3">
+        <v>800</v>
+      </c>
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2545,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>800</v>
       </c>
       <c r="I66" s="3">
+        <v>800</v>
+      </c>
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-5600</v>
       </c>
       <c r="L72" s="3">
         <v>-5600</v>
       </c>
       <c r="M72" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="N72" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,19 +3230,20 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
@@ -3055,8 +3254,8 @@
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,23 +3456,26 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -3277,8 +3494,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3406,11 +3636,11 @@
         <v>5</v>
       </c>
       <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3423,8 +3653,8 @@
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,22 +3830,25 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -3622,8 +3868,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,20 +3906,23 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -3690,6 +3942,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FOMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>FOMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,88 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -762,13 +765,16 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -779,8 +785,8 @@
       <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
+      <c r="H9" s="3">
+        <v>100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
@@ -800,25 +806,28 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
@@ -838,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,46 +946,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>-400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
-        <v>1000</v>
-      </c>
       <c r="G17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-800</v>
       </c>
       <c r="G18" s="3">
         <v>-1200</v>
       </c>
       <c r="H18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,61 +1143,65 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1400</v>
-      </c>
       <c r="G20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1178,93 +1214,102 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
+      <c r="L21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1292,17 +1337,20 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
-        <v>1400</v>
-      </c>
       <c r="G32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,23 +1879,24 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -1832,17 +1918,20 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
         <v>300</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
@@ -1858,8 +1947,8 @@
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1870,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1885,10 +1977,10 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
@@ -1908,19 +2000,22 @@
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
+      <c r="F44" s="3">
+        <v>200</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>5</v>
@@ -1937,8 +2032,8 @@
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -1946,25 +2041,28 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
@@ -1981,26 +2079,29 @@
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -2022,19 +2123,22 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>800</v>
+      </c>
+      <c r="E47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>300</v>
-      </c>
-      <c r="F47" s="3">
-        <v>200</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
@@ -2043,25 +2147,28 @@
         <v>200</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J47" s="3">
         <v>100</v>
       </c>
       <c r="K47" s="3">
+        <v>100</v>
+      </c>
+      <c r="L47" s="3">
         <v>200</v>
-      </c>
-      <c r="L47" s="3">
-        <v>300</v>
       </c>
       <c r="M47" s="3">
         <v>300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>300</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2098,26 +2205,29 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
         <v>1700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>800</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2226,15 +2345,15 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2900</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2500</v>
       </c>
       <c r="F54" s="3">
         <v>2500</v>
       </c>
       <c r="G54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>300</v>
       </c>
       <c r="M54" s="3">
         <v>300</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,26 +2487,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
@@ -2396,19 +2526,22 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -2434,84 +2567,93 @@
       <c r="N58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1000</v>
       </c>
       <c r="M59" s="3">
         <v>1000</v>
       </c>
       <c r="N59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>800</v>
       </c>
       <c r="I60" s="3">
         <v>800</v>
       </c>
       <c r="J60" s="3">
+        <v>800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>800</v>
       </c>
       <c r="I66" s="3">
         <v>800</v>
       </c>
       <c r="J66" s="3">
+        <v>800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-5600</v>
       </c>
       <c r="M72" s="3">
         <v>-5600</v>
       </c>
       <c r="N72" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="O72" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,22 +3428,23 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
@@ -3257,8 +3455,8 @@
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,26 +3672,29 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -3497,8 +3713,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,23 +3853,26 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3656,8 +3885,8 @@
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3665,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,25 +4075,28 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>900</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -3871,8 +4116,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,23 +4157,26 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -3945,6 +4196,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FOMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>FOMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,101 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -768,19 +776,25 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -788,11 +802,11 @@
       <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
+      <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>100</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
@@ -809,31 +823,37 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
@@ -850,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,49 +983,61 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>6900</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>-400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,20 +1047,20 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1031,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F17" s="3">
         <v>11900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>-200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>300</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,70 +1210,78 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-10700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1217,99 +1291,117 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-11200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1340,17 +1432,23 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-11200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-11200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-11200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-11200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,29 +2052,31 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -1921,23 +2095,29 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>300</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
@@ -1950,11 +2130,11 @@
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1962,16 +2142,22 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -1980,13 +2166,13 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>5</v>
@@ -2003,26 +2189,32 @@
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2035,17 +2227,23 @@
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2053,22 +2251,22 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>5</v>
@@ -2082,32 +2280,38 @@
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2126,72 +2330,84 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>500</v>
+      </c>
+      <c r="F47" s="3">
         <v>800</v>
-      </c>
-      <c r="E47" s="3">
-        <v>200</v>
-      </c>
-      <c r="F47" s="3">
-        <v>300</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
       </c>
       <c r="H47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I47" s="3">
         <v>200</v>
       </c>
       <c r="J47" s="3">
+        <v>200</v>
+      </c>
+      <c r="K47" s="3">
+        <v>200</v>
+      </c>
+      <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2208,32 +2424,38 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E49" s="3">
+        <v>800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>1700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>800</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2249,8 +2471,14 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2348,18 +2588,18 @@
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2372,8 +2612,14 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,22 +2748,24 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -2512,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2529,25 +2791,31 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -2570,98 +2838,116 @@
       <c r="O58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2600</v>
       </c>
       <c r="H60" s="3">
         <v>1200</v>
       </c>
       <c r="I60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2693,31 +2979,37 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2734,8 +3026,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2600</v>
       </c>
       <c r="H66" s="3">
         <v>1200</v>
       </c>
       <c r="I66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-20200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-7700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-11200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,28 +3825,30 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>-100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
@@ -3458,11 +3856,11 @@
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3470,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,32 +4103,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -3716,8 +4150,14 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +4173,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +4216,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,29 +4310,35 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>800</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3888,17 +4348,23 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,32 +4564,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>900</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>600</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4119,8 +4611,14 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,29 +4658,35 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4199,6 +4703,12 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FOMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>FOMC</t>
   </si>
@@ -753,7 +753,7 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
@@ -800,7 +800,7 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I14" s="3">
         <v>200</v>
@@ -1117,7 +1117,7 @@
         <v>300</v>
       </c>
       <c r="H17" s="3">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="I17" s="3">
         <v>1400</v>
@@ -1164,7 +1164,7 @@
         <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>-300</v>
+        <v>-1100</v>
       </c>
       <c r="I18" s="3">
         <v>-1200</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>-1000</v>
@@ -1277,7 +1277,7 @@
         <v>-200</v>
       </c>
       <c r="H21" s="3">
-        <v>1200</v>
+        <v>-900</v>
       </c>
       <c r="I21" s="3">
         <v>-2100</v>
@@ -1323,8 +1323,8 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
+      <c r="H22" s="3">
+        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1371,7 +1371,7 @@
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>1200</v>
+        <v>-1200</v>
       </c>
       <c r="I23" s="3">
         <v>-2400</v>
@@ -1512,7 +1512,7 @@
         <v>-200</v>
       </c>
       <c r="H26" s="3">
-        <v>1200</v>
+        <v>-1200</v>
       </c>
       <c r="I26" s="3">
         <v>-2400</v>
@@ -1559,7 +1559,7 @@
         <v>-200</v>
       </c>
       <c r="H27" s="3">
-        <v>1200</v>
+        <v>-1200</v>
       </c>
       <c r="I27" s="3">
         <v>-2400</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-1500</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>1000</v>
@@ -1841,7 +1841,7 @@
         <v>-200</v>
       </c>
       <c r="H33" s="3">
-        <v>1200</v>
+        <v>-1200</v>
       </c>
       <c r="I33" s="3">
         <v>-2400</v>
@@ -1935,7 +1935,7 @@
         <v>-200</v>
       </c>
       <c r="H35" s="3">
-        <v>1200</v>
+        <v>-1200</v>
       </c>
       <c r="I35" s="3">
         <v>-2400</v>
@@ -3779,7 +3779,7 @@
         <v>-200</v>
       </c>
       <c r="H81" s="3">
-        <v>1200</v>
+        <v>-1200</v>
       </c>
       <c r="I81" s="3">
         <v>-2400</v>
@@ -4127,7 +4127,7 @@
         <v>100</v>
       </c>
       <c r="H89" s="3">
-        <v>-600</v>
+        <v>-900</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
@@ -4334,7 +4334,7 @@
         <v>5</v>
       </c>
       <c r="H94" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>500</v>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="I100" s="3">
         <v>600</v>
@@ -4682,7 +4682,7 @@
         <v>200</v>
       </c>
       <c r="H102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>300</v>

--- a/AAII_Financials/Quarterly/FOMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>FOMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,121 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>1200</v>
+        <v>3100</v>
       </c>
       <c r="F8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>600</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -782,40 +793,49 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
-        <v>1100</v>
-      </c>
       <c r="F9" s="3">
+        <v>900</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>500</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
+      <c r="K9" s="3">
+        <v>200</v>
+      </c>
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>100</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
@@ -829,8 +849,17 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,13 +867,13 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
@@ -855,14 +884,14 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
@@ -876,8 +905,17 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +933,11 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +983,17 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1039,17 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -998,63 +1057,72 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
         <v>6900</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-400</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>5</v>
@@ -1062,14 +1130,14 @@
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1083,8 +1151,17 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1176,123 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>2900</v>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="F17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I17" s="3">
         <v>11900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>-300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>-200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-300</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>-1200</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>-11600</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1310,123 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>400</v>
       </c>
       <c r="Q20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>400</v>
+      </c>
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-10700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1315,93 +1434,111 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-11200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>400</v>
       </c>
       <c r="Q23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>400</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1438,17 +1575,26 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1640,129 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I26" s="3">
         <v>-11200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>400</v>
       </c>
       <c r="Q26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>400</v>
+      </c>
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-11200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>400</v>
       </c>
       <c r="Q27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>400</v>
+      </c>
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1808,17 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1864,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1920,17 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1976,129 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>500</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-400</v>
       </c>
       <c r="Q32" s="3">
+        <v>700</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-11200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>400</v>
       </c>
       <c r="Q33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>400</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2144,134 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-11200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>400</v>
       </c>
       <c r="Q35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>400</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2289,11 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,13 +2311,16 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2072,20 +2332,20 @@
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>200</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2101,8 +2361,17 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2115,18 +2384,18 @@
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>300</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2136,52 +2405,61 @@
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>5</v>
@@ -2195,35 +2473,44 @@
       <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="G44" s="3">
+        <v>500</v>
+      </c>
+      <c r="H44" s="3">
+        <v>500</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2233,17 +2520,26 @@
       <c r="N44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2254,28 +2550,28 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>5</v>
@@ -2286,41 +2582,50 @@
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2300</v>
+        <v>1400</v>
       </c>
       <c r="E46" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2336,72 +2641,90 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>100</v>
+      </c>
+      <c r="F47" s="3">
         <v>200</v>
-      </c>
-      <c r="E47" s="3">
-        <v>500</v>
-      </c>
-      <c r="F47" s="3">
-        <v>800</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
       </c>
       <c r="H47" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I47" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="J47" s="3">
         <v>200</v>
       </c>
       <c r="K47" s="3">
+        <v>300</v>
+      </c>
+      <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="L47" s="3">
-        <v>100</v>
-      </c>
       <c r="M47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N47" s="3">
         <v>200</v>
       </c>
       <c r="O47" s="3">
+        <v>100</v>
+      </c>
+      <c r="P47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>200</v>
+      </c>
+      <c r="R47" s="3">
         <v>300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="S47" s="3">
         <v>300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
+        <v>400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
@@ -2409,14 +2732,14 @@
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2430,41 +2753,50 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M49" s="3">
         <v>800</v>
       </c>
-      <c r="E49" s="3">
-        <v>800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>800</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2477,8 +2809,17 @@
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2865,17 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,44 +2921,53 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2618,8 +2977,17 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +3033,73 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="E54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G54" s="3">
         <v>4100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>2900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>2500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>2500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +3117,11 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,22 +3139,25 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G57" s="3">
         <v>900</v>
-      </c>
-      <c r="E57" s="3">
-        <v>700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -2777,13 +3169,13 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2797,34 +3189,43 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
-        <v>900</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>300</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
-        <v>200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
-      </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -2844,119 +3245,146 @@
       <c r="Q58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
+        <v>800</v>
+      </c>
+      <c r="L59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M59" s="3">
+        <v>900</v>
+      </c>
+      <c r="N59" s="3">
+        <v>700</v>
+      </c>
+      <c r="O59" s="3">
+        <v>600</v>
+      </c>
+      <c r="P59" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>900</v>
-      </c>
-      <c r="K59" s="3">
-        <v>700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3700</v>
+        <v>8900</v>
       </c>
       <c r="E60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N60" s="3">
+        <v>800</v>
+      </c>
+      <c r="O60" s="3">
+        <v>800</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2985,40 +3413,49 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3032,8 +3469,17 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3525,17 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3581,17 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3637,73 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4700</v>
+        <v>9400</v>
       </c>
       <c r="E66" s="3">
-        <v>4000</v>
+        <v>6200</v>
       </c>
       <c r="F66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3721,11 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3771,17 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3827,17 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3883,17 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3939,73 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-23000</v>
+        <v>-27900</v>
       </c>
       <c r="E72" s="3">
-        <v>-22000</v>
+        <v>-24100</v>
       </c>
       <c r="F72" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-20200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-9100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-8900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-10100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-7700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-5900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-5500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-5700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-6000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-5600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +4051,17 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +4107,17 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +4163,73 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
-        <v>100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4275,134 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-11200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>400</v>
       </c>
       <c r="Q81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>400</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4420,11 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,46 +4432,55 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>-100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4526,17 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4582,17 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4638,17 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4694,17 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,41 +4750,50 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>700</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
-        <v>-1300</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>100</v>
       </c>
       <c r="H89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -4156,8 +4806,17 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4834,11 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4884,17 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4940,17 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4996,73 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>800</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+        <v>200</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>500</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +5080,11 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +5130,17 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +5186,17 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5242,17 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,41 +5298,50 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4617,8 +5354,17 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,13 +5410,22 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4685,17 +5440,17 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>200</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +5464,15 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FOMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>FOMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,129 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -802,43 +806,46 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
+      <c r="N9" s="3">
+        <v>100</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>5</v>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,34 +877,34 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>5</v>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,69 +1065,75 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>200</v>
       </c>
       <c r="M14" s="3">
+        <v>200</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>-400</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-200</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1124,8 +1147,8 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>5</v>
@@ -1139,8 +1162,8 @@
       <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>800</v>
       </c>
       <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1400</v>
       </c>
       <c r="L17" s="3">
         <v>1400</v>
       </c>
       <c r="M17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>-300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>-200</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>100</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1200</v>
       </c>
       <c r="M18" s="3">
         <v>-1200</v>
       </c>
       <c r="N18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,97 +1346,101 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>3000</v>
       </c>
       <c r="E20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>3200</v>
       </c>
       <c r="E21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1416,17 +1453,20 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
+      <c r="R21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,10 +1474,10 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1446,99 +1486,105 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1584,17 +1630,20 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>2900</v>
       </c>
       <c r="E26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>2900</v>
       </c>
       <c r="E27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>-3000</v>
       </c>
       <c r="E32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>2900</v>
       </c>
       <c r="E33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>2900</v>
       </c>
       <c r="E35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2329,26 +2416,26 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2393,12 +2483,12 @@
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>300</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2414,8 +2504,8 @@
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2426,28 +2516,31 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2459,10 +2552,10 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>5</v>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2491,28 +2587,28 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
+        <v>300</v>
+      </c>
+      <c r="F44" s="3">
         <v>400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>500</v>
       </c>
       <c r="H44" s="3">
         <v>500</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
+      <c r="L44" s="3">
+        <v>200</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>5</v>
@@ -2529,8 +2625,8 @@
       <c r="Q44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2550,31 +2649,31 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>5</v>
@@ -2591,44 +2690,47 @@
       <c r="S45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2659,28 +2764,28 @@
         <v>500</v>
       </c>
       <c r="E47" s="3">
+        <v>500</v>
+      </c>
+      <c r="F47" s="3">
         <v>100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>200</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
       </c>
       <c r="H47" s="3">
+        <v>200</v>
+      </c>
+      <c r="I47" s="3">
         <v>500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>300</v>
-      </c>
-      <c r="L47" s="3">
-        <v>200</v>
       </c>
       <c r="M47" s="3">
         <v>200</v>
@@ -2689,25 +2794,28 @@
         <v>200</v>
       </c>
       <c r="O47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P47" s="3">
         <v>100</v>
       </c>
       <c r="Q47" s="3">
+        <v>100</v>
+      </c>
+      <c r="R47" s="3">
         <v>200</v>
-      </c>
-      <c r="R47" s="3">
-        <v>300</v>
       </c>
       <c r="S47" s="3">
         <v>300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>300</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,7 +2823,7 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
@@ -2726,8 +2834,8 @@
       <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+      <c r="I48" s="3">
+        <v>400</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -2741,8 +2849,8 @@
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2762,19 +2870,22 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E49" s="3">
+        <v>800</v>
+      </c>
+      <c r="F49" s="3">
         <v>900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1400</v>
       </c>
       <c r="G49" s="3">
         <v>1400</v>
@@ -2783,23 +2894,23 @@
         <v>1400</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>1700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2956,21 +3076,21 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2500</v>
       </c>
       <c r="L54" s="3">
         <v>2500</v>
       </c>
       <c r="M54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
-      </c>
-      <c r="O54" s="3">
-        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
       </c>
       <c r="T54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,44 +3272,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
@@ -3198,37 +3329,40 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="E58" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F58" s="3">
         <v>3000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2300</v>
       </c>
       <c r="G58" s="3">
         <v>2300</v>
       </c>
       <c r="H58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>400</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
@@ -3254,125 +3388,134 @@
       <c r="T58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1000</v>
       </c>
       <c r="S59" s="3">
         <v>1000</v>
       </c>
       <c r="T59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>800</v>
       </c>
       <c r="O60" s="3">
         <v>800</v>
       </c>
       <c r="P60" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
@@ -3387,7 +3530,7 @@
         <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3437,13 +3583,13 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+      <c r="I62" s="3">
+        <v>300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -3457,8 +3603,8 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
         <v>9400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>800</v>
       </c>
       <c r="O66" s="3">
         <v>800</v>
       </c>
       <c r="P66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-27900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6000</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-5600</v>
       </c>
       <c r="S72" s="3">
         <v>-5600</v>
       </c>
       <c r="T72" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="U72" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>2900</v>
       </c>
       <c r="E81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,11 +4631,11 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -4444,19 +4643,19 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>-100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>5</v>
@@ -4467,8 +4666,8 @@
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,44 +4973,47 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-400</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
         <v>-400</v>
       </c>
       <c r="F89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5014,32 +5244,32 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
@@ -5052,8 +5282,8 @@
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,44 +5550,47 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
-      </c>
-      <c r="E100" s="3">
-        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5431,29 +5683,29 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>
